--- a/resources/insumoModuloVentas.xlsx
+++ b/resources/insumoModuloVentas.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20404"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icf2303\Documents\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1628FC7D-000F-4C09-8B0E-73E4F196CF12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFABA8A2-5DD2-4CC1-873C-6280CF13752F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{9868DF3B-556E-4CB5-9D37-E33C6EFC3E5F}"/>
   </bookViews>
   <sheets>
-    <sheet name="EGLOBAL BBVA PERU" sheetId="1" r:id="rId1"/>
+    <sheet name="VENTAS CONSULTA ACEPTADAS" sheetId="1" r:id="rId1"/>
+    <sheet name="VENTAS CONSULTAS RECHAZADAS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
   <si>
     <t>AFILIACION</t>
   </si>
@@ -39,42 +40,9 @@
     <t>Número de cuenta</t>
   </si>
   <si>
-    <t>4761739001010119</t>
-  </si>
-  <si>
-    <t>5149400000001472</t>
-  </si>
-  <si>
-    <t>4051420006041115</t>
-  </si>
-  <si>
-    <t>5195150025521458</t>
-  </si>
-  <si>
-    <t>10000077</t>
-  </si>
-  <si>
-    <t>10000150</t>
-  </si>
-  <si>
-    <t>10000258</t>
-  </si>
-  <si>
     <t>10005752</t>
   </si>
   <si>
-    <t>002942</t>
-  </si>
-  <si>
-    <t>005982</t>
-  </si>
-  <si>
-    <t>072904</t>
-  </si>
-  <si>
-    <t>405032</t>
-  </si>
-  <si>
     <t>Tipo de fecha</t>
   </si>
   <si>
@@ -180,12 +148,6 @@
     <t>Soles</t>
   </si>
   <si>
-    <t>20230607</t>
-  </si>
-  <si>
-    <t>20230714</t>
-  </si>
-  <si>
     <t>20230727</t>
   </si>
   <si>
@@ -195,9 +157,6 @@
     <t>00</t>
   </si>
   <si>
-    <t>07-06-2023</t>
-  </si>
-  <si>
     <t>14-07-2023</t>
   </si>
   <si>
@@ -253,12 +212,6 @@
   </si>
   <si>
     <t>Fecha Final</t>
-  </si>
-  <si>
-    <t>202307277</t>
-  </si>
-  <si>
-    <t>27-06-2023</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -281,14 +234,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-5195150025521458</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-405032</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 0.00</t>
   </si>
   <si>
@@ -301,6 +246,60 @@
   </si>
   <si>
     <t>Afiliación Inexistente</t>
+  </si>
+  <si>
+    <t>0000000000000000</t>
+  </si>
+  <si>
+    <t>Fecha Pago</t>
+  </si>
+  <si>
+    <t>20230701</t>
+  </si>
+  <si>
+    <t>01-07-2023</t>
+  </si>
+  <si>
+    <t>20000150</t>
+  </si>
+  <si>
+    <t>5347789400001417</t>
+  </si>
+  <si>
+    <t>555042</t>
+  </si>
+  <si>
+    <t>405008</t>
+  </si>
+  <si>
+    <t>20230921</t>
+  </si>
+  <si>
+    <t>10000066</t>
+  </si>
+  <si>
+    <t>4551038224822838</t>
+  </si>
+  <si>
+    <t>175004</t>
+  </si>
+  <si>
+    <t>20230719</t>
+  </si>
+  <si>
+    <t>20000432</t>
+  </si>
+  <si>
+    <t>5186007600090864</t>
+  </si>
+  <si>
+    <t>005840</t>
+  </si>
+  <si>
+    <t>20230920</t>
+  </si>
+  <si>
+    <t>Fecha Venta</t>
   </si>
 </sst>
 </file>
@@ -310,7 +309,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.000000000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,12 +330,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -381,12 +374,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -401,6 +388,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -437,23 +430,20 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -471,32 +461,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16F157F-1554-4AB2-83B6-9BC465217A6B}">
-  <dimension ref="A1:AI26"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -834,6 +826,7 @@
     <col min="13" max="13" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.6328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.36328125" bestFit="1" customWidth="1"/>
@@ -852,542 +845,758 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="P2" s="13">
+        <v>230.5</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="13">
+        <v>604</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>16348</v>
+      </c>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="D3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.57434027777777774</v>
+      </c>
+      <c r="J3" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="23" t="s">
+      <c r="K3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" s="23" t="s">
+      <c r="N3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="13">
+        <v>604</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="I1" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="O1" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="R1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="S1" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB1" s="23" t="s">
+      <c r="AC3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AE3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF1" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH1" s="25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="P2" s="14">
-        <v>230.5</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R2" s="14">
-        <v>604</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="U2" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="V2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X2" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="Y2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA2" s="8">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC2" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF2" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH2" s="27">
-        <v>16348</v>
-      </c>
-      <c r="AI2" s="2"/>
-    </row>
-    <row r="3" spans="1:35" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0.57434027777777774</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="14">
-        <v>604</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="W3" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AC3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AE3" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH3" s="28">
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="18">
         <v>8797</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="21"/>
-      <c r="AF4" s="21"/>
-      <c r="AG4" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH4" s="27">
-        <v>15059</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="17"/>
-      <c r="L5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH5" s="27">
-        <v>8958</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>16348</v>
-      </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
-      <c r="AD7" s="3"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="E8" s="1"/>
-      <c r="F8" s="4"/>
-      <c r="H8" s="1"/>
+      <c r="AH8" s="1"/>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="K9" s="3"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="1"/>
-      <c r="W10" s="1"/>
+      <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AH11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="C12" s="1"/>
+      <c r="O12" s="1"/>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="AA13" s="1"/>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="C14" s="1"/>
+      <c r="W13" s="1"/>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="O15" s="1"/>
+      <c r="AF15" s="1"/>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="W16" s="1"/>
-    </row>
-    <row r="18" spans="5:32" x14ac:dyDescent="0.35">
-      <c r="AF18" s="1"/>
-    </row>
-    <row r="19" spans="5:32" x14ac:dyDescent="0.35">
-      <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="5:32" x14ac:dyDescent="0.35">
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="5:32" x14ac:dyDescent="0.35">
-      <c r="E21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="AE21" s="1"/>
-    </row>
-    <row r="26" spans="5:32" x14ac:dyDescent="0.35">
-      <c r="AB26" s="1"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="5:31" x14ac:dyDescent="0.35">
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="5:31" x14ac:dyDescent="0.35">
+      <c r="E18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="AE18" s="1"/>
+    </row>
+    <row r="23" spans="5:31" x14ac:dyDescent="0.35">
+      <c r="AB23" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D4202B-C9A1-4B67-B7AE-60B6589FD420}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="12" max="12" width="16.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="N1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="12"/>
+      <c r="O2" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P2" s="13">
+        <v>230.5</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="13">
+        <v>604</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA2" s="7">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>16348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.57434027777777774</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="13">
+        <v>604</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>8797</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AG4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>15059</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/insumoModuloVentas.xlsx
+++ b/resources/insumoModuloVentas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icf2303\Documents\Insumos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFABA8A2-5DD2-4CC1-873C-6280CF13752F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2849D52A-F075-4233-828B-EF9013C03A37}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7520" xr2:uid="{9868DF3B-556E-4CB5-9D37-E33C6EFC3E5F}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="90">
   <si>
     <t>AFILIACION</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t>Fecha Venta</t>
+  </si>
+  <si>
+    <t>5550455</t>
   </si>
 </sst>
 </file>
@@ -807,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16F157F-1554-4AB2-83B6-9BC465217A6B}">
   <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1051,7 +1054,7 @@
       </c>
       <c r="AI2" s="2"/>
     </row>
-    <row r="3" spans="1:35" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="25" t="s">
         <v>73</v>
       </c>
@@ -1153,18 +1156,107 @@
         <v>8797</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
+    <row r="4" spans="1:35" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.57434027777777774</v>
+      </c>
+      <c r="J4" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="13">
+        <v>604</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE4" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF4" s="13"/>
+      <c r="AG4" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>8797</v>
+      </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="E5" s="1"/>
@@ -1225,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D4202B-C9A1-4B67-B7AE-60B6589FD420}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
